--- a/Pivot tables by Katari Pavan.xlsx
+++ b/Pivot tables by Katari Pavan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kataripavan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D4270-9CDE-F64F-84D5-48B24A8CE0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097C9E2-9B70-174F-82A1-A2F0815858B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{7155876E-4D5F-764E-9B3A-C475EC5BB5B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="8" xr2:uid="{7155876E-4D5F-764E-9B3A-C475EC5BB5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="1" r:id="rId1"/>
     <sheet name="Report-1" sheetId="3" r:id="rId2"/>
-    <sheet name="Report-2" sheetId="4" r:id="rId3"/>
-    <sheet name="Report-3" sheetId="5" r:id="rId4"/>
+    <sheet name="Report-2" sheetId="5" r:id="rId3"/>
+    <sheet name="Report-3" sheetId="4" r:id="rId4"/>
     <sheet name="Report-4" sheetId="6" r:id="rId5"/>
     <sheet name="Report-5" sheetId="9" r:id="rId6"/>
     <sheet name="Report-6" sheetId="10" r:id="rId7"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="58">
   <si>
     <t>Sales Person</t>
   </si>
@@ -210,6 +210,30 @@
   <si>
     <t>Sum of Amount2</t>
   </si>
+  <si>
+    <t>Total sales by sales persons</t>
+  </si>
+  <si>
+    <t>Total sales by geography and sales person</t>
+  </si>
+  <si>
+    <t>Total Sales by Geography</t>
+  </si>
+  <si>
+    <t>Top 10 sales with sales person Filter</t>
+  </si>
+  <si>
+    <t>Total sales by Geography</t>
+  </si>
+  <si>
+    <t>Final sales Report</t>
+  </si>
+  <si>
+    <t>Pivot charts of Sales by Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pivot charts with Data bars </t>
+  </si>
 </sst>
 </file>
 
@@ -217,16 +241,44 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="172" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -260,10 +312,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,10 +338,10 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -425,49 +490,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -523,7 +546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Report-6'!$B$1</c:f>
+              <c:f>'Report-6'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -629,7 +652,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Report-6'!$A$2:$A$8</c:f>
+              <c:f>'Report-6'!$A$4:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -655,7 +678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Report-6'!$B$2:$B$8</c:f>
+              <c:f>'Report-6'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1018,49 +1041,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2465,8 +2446,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Geography">
@@ -2489,7 +2470,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2539,14 +2520,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2579,15 +2560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2615,15 +2596,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2659,7 +2640,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7581900" y="330200"/>
+              <a:off x="7594600" y="622300"/>
               <a:ext cx="3111500" cy="2032000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7952,7 +7933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A1DA3EC-08F3-8942-A33F-437B33393B27}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A1DA3EC-08F3-8942-A33F-437B33393B27}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8551,7 +8532,100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0C7FFA-1873-5A41-AD15-5CEDCD1FD0F8}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22629A25-44D9-3247-A17B-0084B23495A1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0C7FFA-1873-5A41-AD15-5CEDCD1FD0F8}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8663,102 +8737,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22629A25-44D9-3247-A17B-0084B23495A1}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{701A42E1-5429-B944-BB5E-6AD8BDBED1C0}" name="PivotTable5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{701A42E1-5429-B944-BB5E-6AD8BDBED1C0}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
@@ -9033,7 +9014,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2293A67-5510-BD40-86B9-7AE8ED41C3DD}" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2293A67-5510-BD40-86B9-7AE8ED41C3DD}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9123,8 +9104,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1E3EEE9-70ED-2943-8AF5-6C7B503A1D23}" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1E3EEE9-70ED-2943-8AF5-6C7B503A1D23}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -9198,7 +9179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C78773-10A5-CE40-B9D2-3A5D8CF104EA}" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C78773-10A5-CE40-B9D2-3A5D8CF104EA}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9321,7 +9302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8C8F32-4562-EF4D-812F-721101261737}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F8C8F32-4562-EF4D-812F-721101261737}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -9464,7 +9445,6 @@
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Geography 1" xr10:uid="{DD3CC120-7112-7142-BAB8-4D114123FD93}" cache="Slicer_Geography1" caption="Geography" rowHeight="251883"/>
-  <slicer name="Geography 2" xr10:uid="{5F083524-6C8E-B94C-8CAA-1C8E00795912}" cache="Slicer_Geography1" caption="Geography" rowHeight="251883"/>
 </slicers>
 </file>
 
@@ -9781,7 +9761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E522F9-E266-B943-8933-B8E7D245EDD8}">
   <dimension ref="A1:E648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -20818,10 +20798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E83880-47DC-AC44-A99B-6C34F6910DD3}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20830,6 +20810,12 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
@@ -20842,7 +20828,7 @@
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>270914</v>
       </c>
     </row>
@@ -20850,7 +20836,7 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>253813</v>
       </c>
     </row>
@@ -20858,7 +20844,7 @@
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>253078</v>
       </c>
     </row>
@@ -20866,7 +20852,7 @@
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>274680</v>
       </c>
     </row>
@@ -20874,7 +20860,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>305599</v>
       </c>
     </row>
@@ -20882,7 +20868,7 @@
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>294280</v>
       </c>
     </row>
@@ -20890,7 +20876,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>250677</v>
       </c>
     </row>
@@ -20898,7 +20884,7 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>237412</v>
       </c>
     </row>
@@ -20906,7 +20892,7 @@
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>223664</v>
       </c>
     </row>
@@ -20914,7 +20900,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>271719</v>
       </c>
     </row>
@@ -20922,7 +20908,139 @@
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
+        <v>2635836</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B675B65-72B1-3E45-8F7F-964042483684}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>270914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>253813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>253078</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>274680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>305599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>294280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>250677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>237412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>223664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>271719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
         <v>2635836</v>
       </c>
     </row>
@@ -20931,12 +21049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898AA9E0-AEEF-D049-ACF4-655361D194BD}">
-  <dimension ref="A3:H15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20948,6 +21066,18 @@
     <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>46</v>
@@ -20986,25 +21116,25 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>42154</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>50267</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>33530</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>49196</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>73381</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>22386</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>270914</v>
       </c>
     </row>
@@ -21012,25 +21142,25 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>47593</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>21525</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>43785</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>44114</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>50729</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>46067</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>253813</v>
       </c>
     </row>
@@ -21038,25 +21168,25 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>17192</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>66920</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>27538</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>53032</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>17724</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>70672</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>253078</v>
       </c>
     </row>
@@ -21064,25 +21194,25 @@
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>40089</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>41636</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>72457</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>51142</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>19012</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>50344</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>274680</v>
       </c>
     </row>
@@ -21090,25 +21220,25 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>50897</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>60662</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>51681</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>40040</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>55881</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>46438</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>305599</v>
       </c>
     </row>
@@ -21116,25 +21246,25 @@
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>42644</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>67893</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>65044</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>31955</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>43393</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>43351</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>294280</v>
       </c>
     </row>
@@ -21142,25 +21272,25 @@
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>39347</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>57463</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>58359</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>28539</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>24311</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>42658</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>250677</v>
       </c>
     </row>
@@ -21168,25 +21298,25 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>40320</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>50134</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>54110</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>29281</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>20412</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>43155</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>237412</v>
       </c>
     </row>
@@ -21194,25 +21324,25 @@
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>37226</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>50169</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>25494</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>38990</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>32613</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>39172</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>223664</v>
       </c>
     </row>
@@ -21220,25 +21350,25 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>37968</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>48811</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>37513</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>55958</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>45395</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>46074</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>271719</v>
       </c>
     </row>
@@ -21246,162 +21376,42 @@
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>395430</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>515480</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>469511</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>422247</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>382851</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>450317</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>2635836</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B675B65-72B1-3E45-8F7F-964042483684}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
-        <v>270914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>253813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>253078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6">
-        <v>274680</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6">
-        <v>305599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6">
-        <v>294280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6">
-        <v>250677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>237412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="6">
-        <v>223664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6">
-        <v>271719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2635836</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A547E117-28EE-D94E-AC5E-661E5551BAE9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21413,107 +21423,113 @@
     <col min="36" max="146" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B6">
         <v>4704</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7">
         <v>4770</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8">
         <v>4773</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B9">
         <v>4998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B10">
         <v>5187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B11">
         <v>5382</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B12">
         <v>5937</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B13">
         <v>6051</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B14">
         <v>6057</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B15">
         <v>6132</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B16">
         <v>53991</v>
       </c>
     </row>
@@ -21524,10 +21540,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44720C42-4E06-814C-B1D6-4756974D2FF9}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21536,7 +21552,13 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -21544,91 +21566,91 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>270914</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>253813</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>253078</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>274680</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>305599</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>294280</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>250677</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>237412</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>223664</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>271719</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>2635836</v>
       </c>
     </row>
@@ -21647,10 +21669,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D6CF79-31A3-8943-9C6F-F8BD22ACF7D5}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21659,67 +21681,72 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="C1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4">
         <v>395430</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B5">
         <v>515480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B6">
         <v>469511</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7">
         <v>422247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8">
         <v>382851</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B9">
         <v>450317</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B10">
         <v>2635836</v>
       </c>
     </row>
@@ -21731,10 +21758,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA52E5B-F13E-5240-9AF7-B3E7DF950F3E}">
-  <dimension ref="A3:C14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21744,14 +21771,19 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -21759,10 +21791,10 @@
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>270914</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.10278105314594686</v>
       </c>
     </row>
@@ -21770,10 +21802,10 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>253813</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>9.6293168467233931E-2</v>
       </c>
     </row>
@@ -21781,10 +21813,10 @@
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>253078</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>9.6014319555541391E-2</v>
       </c>
     </row>
@@ -21792,10 +21824,10 @@
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>274680</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.10420982185538098</v>
       </c>
     </row>
@@ -21803,10 +21835,10 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>305599</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.11594006607391355</v>
       </c>
     </row>
@@ -21814,10 +21846,10 @@
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>294280</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.11164579283384854</v>
       </c>
     </row>
@@ -21825,10 +21857,10 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>250677</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>9.5103413110679116E-2</v>
       </c>
     </row>
@@ -21836,10 +21868,10 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>237412</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>9.0070854180609117E-2</v>
       </c>
     </row>
@@ -21847,10 +21879,10 @@
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>223664</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>8.4855051679998295E-2</v>
       </c>
     </row>
@@ -21858,10 +21890,10 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>271719</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.10308645909684822</v>
       </c>
     </row>
@@ -21869,10 +21901,10 @@
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>2635836</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -21916,10 +21948,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38686D38-6492-D241-AA46-B5237813B1F2}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21928,7 +21960,12 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -21936,51 +21973,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>270914</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>274680</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>305599</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>294280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>271719</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1417192</v>
       </c>
     </row>
